--- a/database/industries/ghaza/gheshasfa/product/yearly_seprated.xlsx
+++ b/database/industries/ghaza/gheshasfa/product/yearly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshasfa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A2CB60-45C5-46AC-9CDD-08BED66DACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1DAD9F-E707-487F-A984-F66012046867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
